--- a/patient_data/patient_29.xlsx
+++ b/patient_data/patient_29.xlsx
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1670,26 +1670,26 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
